--- a/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
@@ -21,12 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">codes for  paypal and cc</t>
   </si>
   <si>
-    <t xml:space="preserve">DIYHRGDMRATSSLOF </t>
+    <t xml:space="preserve">ARMVJHCAQLQIKPLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZJSYJITMLHQCTHYA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMGCHRZCSRQOHGHW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CQIDCTPTHHQAGMTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOZRVQQKGLAZSCZQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTYKSGYDZACTSRJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKDRKOKGVYIGKSDJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FVTCJZTFIPRMOJJY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YRJROWCFIMSMALAQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VZHZPLQJRSYFMFPL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDRJGGZJPMYPOLTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPTGOKKIRCQJOQJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKMHKJHFASLVDCCM </t>
   </si>
   <si>
     <t xml:space="preserve">FSRWLFVKIYHJRGMI </t>
@@ -135,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +181,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,10 +205,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -183,42 +223,69 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -246,52 +313,52 @@
   <sheetData>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
@@ -21,48 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">codes for  paypal and cc</t>
   </si>
   <si>
-    <t xml:space="preserve">ARMVJHCAQLQIKPLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZJSYJITMLHQCTHYA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WMGCHRZCSRQOHGHW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQIDCTPTHHQAGMTO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WOZRVQQKGLAZSCZQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTYKSGYDZACTSRJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TKDRKOKGVYIGKSDJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FVTCJZTFIPRMOJJY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YRJROWCFIMSMALAQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VZHZPLQJRSYFMFPL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QDRJGGZJPMYPOLTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPTGOKKIRCQJOQJ </t>
-  </si>
-  <si>
     <t xml:space="preserve">DKMHKJHFASLVDCCM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCPMZVGRKDFKFFSJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YQRQIVJQALWTSWFK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSKKHSVZHTATVWWG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPDOGFCVJZGPACHD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLCFZASVVKDAOVDQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPDYGMOSYDGYMMFZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKQZHROZCGOJSCMJ </t>
   </si>
   <si>
     <t xml:space="preserve">FSRWLFVKIYHJRGMI </t>
@@ -205,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,11 +208,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -260,31 +245,6 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -313,52 +273,52 @@
   <sheetData>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
@@ -21,33 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">codes for  paypal and cc</t>
   </si>
   <si>
-    <t xml:space="preserve">DKMHKJHFASLVDCCM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCPMZVGRKDFKFFSJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YQRQIVJQALWTSWFK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KSKKHSVZHTATVWWG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPDOGFCVJZGPACHD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JLCFZASVVKDAOVDQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPDYGMOSYDGYMMFZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKQZHROZCGOJSCMJ </t>
+    <t xml:space="preserve">TCKHDSQAWPTJJWSJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JZVAQTIDDKOPHGAI </t>
   </si>
   <si>
     <t xml:space="preserve">FSRWLFVKIYHJRGMI </t>
@@ -190,7 +172,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -208,7 +190,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -219,32 +201,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -273,52 +230,52 @@
   <sheetData>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
